--- a/Modelagem/HROADS-FÍSICO.xlsx
+++ b/Modelagem/HROADS-FÍSICO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/480d5ffb018c6fc9/Documentos/SENAI/2DM_Projeto_HROADS/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="11_AD4D361C20488DEA4E38A0CD341D69CE5ADEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02147CC1-6FC2-4691-81CB-9F7569C5E8AD}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="11_AD4D361C20488DEA4E38A0CD341D69CE5ADEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7E303D-D32E-4374-9C67-E79100023055}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,8 +139,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -323,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,6 +480,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +877,9 @@
         <v>44418</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="59"/>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
@@ -1013,16 +1025,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K17" s="60"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -1056,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -1107,7 +1120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -1158,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>9</v>
       </c>
@@ -1194,5 +1207,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modelagem/HROADS-FÍSICO.xlsx
+++ b/Modelagem/HROADS-FÍSICO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/480d5ffb018c6fc9/Documentos/SENAI/2DM_Projeto_HROADS/Modelagem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senai\Projeto_HROADS\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="11_AD4D361C20488DEA4E38A0CD341D69CE5ADEDD9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7E303D-D32E-4374-9C67-E79100023055}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E9CF8-71D6-45E3-B387-4E045C7E4B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26490" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>PERSONAGEM</t>
   </si>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -341,12 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +389,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,9 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,7 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -763,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,76 +798,76 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>80</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>43483</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>44418</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>70</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>100</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>42446</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>44418</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="41">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>75</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>60</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>43177</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>44418</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="59"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -907,13 +896,13 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="59"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -922,113 +911,113 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="31">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="21">
-        <v>2</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>3</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>4</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="39">
         <v>6</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>7</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="K17" s="60"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1039,170 +1028,110 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="43">
+        <v>2</v>
+      </c>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="43">
+        <v>2</v>
+      </c>
+      <c r="C23" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="44">
+        <v>3</v>
+      </c>
+      <c r="C25" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="43">
+        <v>2</v>
+      </c>
+      <c r="C26" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>7</v>
+      </c>
+      <c r="B27" s="44">
+        <v>3</v>
+      </c>
+      <c r="C27" s="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>8</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>9</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="16">
-        <v>1</v>
-      </c>
-      <c r="C21" s="49">
-        <v>1</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="31">
-        <v>1</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>3</v>
-      </c>
-      <c r="B23" s="46">
-        <v>2</v>
-      </c>
-      <c r="C23" s="52">
-        <v>2</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>4</v>
-      </c>
-      <c r="B24" s="31">
-        <v>1</v>
-      </c>
-      <c r="C24" s="53">
-        <v>3</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>5</v>
-      </c>
-      <c r="B25" s="47">
-        <v>3</v>
-      </c>
-      <c r="C25" s="54">
-        <v>4</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>6</v>
-      </c>
-      <c r="B26" s="46">
-        <v>2</v>
-      </c>
-      <c r="C26" s="54">
-        <v>4</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="B29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="53">
         <v>7</v>
-      </c>
-      <c r="B27" s="47">
-        <v>3</v>
-      </c>
-      <c r="C27" s="55">
-        <v>6</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>8</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="56">
-        <v>5</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>9</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="57">
-        <v>7</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Modelagem/HROADS-FÍSICO.xlsx
+++ b/Modelagem/HROADS-FÍSICO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senai\Projeto_HROADS\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/480d5ffb018c6fc9/Documentos/SENAI/2DM_Projeto_HROADS/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E9CF8-71D6-45E3-B387-4E045C7E4B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1A6E9CF8-71D6-45E3-B387-4E045C7E4B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6958F51-1936-4F1E-829D-D7FB00220429}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26490" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,11 +327,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,21 +387,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,32 +466,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,374 +772,357 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E5" s="5">
         <v>80</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F5" s="19">
         <v>43483</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G5" s="16">
         <v>44418</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="30">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D6" s="6">
         <v>70</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="6">
         <v>100</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F6" s="20">
         <v>42446</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G6" s="17">
         <v>44418</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="I6" s="14">
+        <v>2</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B7" s="36">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D7" s="7">
         <v>75</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E7" s="7">
         <v>60</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F7" s="21">
         <v>43177</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G7" s="18">
         <v>44418</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="54"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I7" s="46">
+        <v>3</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="41"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="11">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>2</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="38">
+        <v>2</v>
+      </c>
+      <c r="J14" s="47">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>2</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>3</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>4</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="28">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="39">
+        <v>3</v>
+      </c>
+      <c r="J17" s="30">
         <v>4</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="38">
+        <v>2</v>
+      </c>
+      <c r="J18" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>7</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="39">
+        <v>3</v>
+      </c>
+      <c r="J19" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="H20" s="6">
+        <v>8</v>
+      </c>
+      <c r="I20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="J20" s="32">
         <v>5</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>6</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
+        <v>9</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="K17" s="55"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="43">
-        <v>2</v>
-      </c>
-      <c r="C22" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="43">
-        <v>2</v>
-      </c>
-      <c r="C23" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>4</v>
-      </c>
-      <c r="B24" s="28">
-        <v>1</v>
-      </c>
-      <c r="C24" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>5</v>
-      </c>
-      <c r="B25" s="44">
-        <v>3</v>
-      </c>
-      <c r="C25" s="50">
-        <v>4</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>6</v>
-      </c>
-      <c r="B26" s="43">
-        <v>2</v>
-      </c>
-      <c r="C26" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" s="44">
-        <v>3</v>
-      </c>
-      <c r="C27" s="51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>8</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>9</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="53">
-        <v>7</v>
-      </c>
+      <c r="A26" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
